--- a/Test Cases_Backbase.docx.xlsx
+++ b/Test Cases_Backbase.docx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t xml:space="preserve">Test case number </t>
   </si>
@@ -139,6 +139,139 @@
   </si>
   <si>
     <t>The user should be able to update the details correctly. Verify the updated computer details  by entering the name of the computer in the Filter by name text box on the homepage. It will display the newly updated details of the Computer</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>The user should be able to open the application in a web browser.</t>
+  </si>
+  <si>
+    <t>The computer that user wants to delete should be an exisiting computer in the database</t>
+  </si>
+  <si>
+    <t>The computer that user wants to read should be an exisiting computer in the database</t>
+  </si>
+  <si>
+    <t>The computer that user wants to update should be an exisiting computer in the database</t>
+  </si>
+  <si>
+    <t>Verify the Introduced date field in Add new computer page with an invalid month</t>
+  </si>
+  <si>
+    <t>Verify the Discontinued date field in Add new computer page with an invalid month</t>
+  </si>
+  <si>
+    <t>The computer should not be created. The text field Discontinued date should be highlighted in red</t>
+  </si>
+  <si>
+    <t>The computer should not be created. The text field Introduced date and  should be highlighted in red</t>
+  </si>
+  <si>
+    <t>Verify the Introduced date field in Add new computer page with an invalid calendar date</t>
+  </si>
+  <si>
+    <t>Verify the Discontinued date field in Add new computer page with an invalid calendar date</t>
+  </si>
+  <si>
+    <t>Verify  the Add new computer page without entering any value in any of the fields</t>
+  </si>
+  <si>
+    <t>The user should not  be able toadd the new computer</t>
+  </si>
+  <si>
+    <t>Do not fill in any details:
+Computer name: 
+ Introduced date: 
+ Discontinued date: 
+ Company: 
+Click on Add new computer</t>
+  </si>
+  <si>
+    <t>Verify the Introduced date field in Add new computer page with an invalid year</t>
+  </si>
+  <si>
+    <t>The computer should not be created. The text field Introduced date and  should be highlighted in red.
+The system accept values upto 9 places only for a year</t>
+  </si>
+  <si>
+    <t>Verify the Discontinued date field in Add new computer page with an invalid year</t>
+  </si>
+  <si>
+    <t>Try to enter a  date with invalid calendar date as an 
+Introduced date: yyyy-mm-dd eg: 1234567890-12-10
+should be 10 digits
+Fill in the rest of the details correctly.
+Computer name: Alphabetic eg: Piyush
+ Discontinued date: yyyy-mm-dd eg: 2016-11-23
+ Company: Choose any value from the dropdown eg: Canon
+Click on Create this computer</t>
+  </si>
+  <si>
+    <t>Try to enter a  date with invalid calendar date as an 
+Discontinued date: yyyy-mm-dd eg: 1234567890-11-20
+should be 10 digits
+Fill in the rest of the details correctly.
+Computer name: Alphabetic eg: Piyush
+ Introduced date: yyyy-mm-dd eg: 2016-11-23
+ Company: Choose any value from the dropdown eg: Canon
+Click on Create this computer</t>
+  </si>
+  <si>
+    <t>The computer should not be created. The text field Discontinued date and  should be highlighted in red.
+The system accept values upto 9 places only for a year</t>
+  </si>
+  <si>
+    <t>Try to enter a  date with invalid month as an introduced date 
+Discontinued date: yyyy-mm-dd eg: 2018-13-19
+Fill in the rest of the details correctly.
+Computer name: Alphabetic eg: Piyush
+ Introduced date: yyyy-mm-dd eg: 2019-11-23
+ Company: Choose any value from the dropdown eg: Canon
+Click on Create this computer</t>
+  </si>
+  <si>
+    <t>Try to enter a  date with invalid calendar date as an introduced date 
+Introduced date: yyyy-mm-dd eg: 2016-12-32
+Fill in the rest of the details correctly.
+Computer name: Alphabetic eg: Piyush
+ Discontinued date: yyyy-mm-dd eg: 2016-11-23
+ Company: Choose any value from the dropdown eg: Canon
+Click on Create this computer</t>
+  </si>
+  <si>
+    <t>The user should be able to open the application in a web browser.
+December has only 31 days so enter 32 as input date to make the date invalid</t>
+  </si>
+  <si>
+    <t>The user should be able to open the application in a web browser.
+Enter the month as 13</t>
+  </si>
+  <si>
+    <t>The user should be able to open the application in a web browser.
+Enter the month as 00</t>
+  </si>
+  <si>
+    <t>Try to enter a  date with invalid month as an introduced date 
+Introduced date: yyyy-mm-dd eg: 2016-00-19
+Fill in the rest of the details correctly.
+Computer name: Alphabetic eg: Piyush
+ Discontinued date: yyyy-mm-dd eg: 2016-11-23
+ Company: Choose any value from the dropdown eg: Canon
+Click on Create this computer</t>
+  </si>
+  <si>
+    <t>Try to enter a  date with invalid calendar date as an Discontinued date 
+Discontinued date: yyyy-mm-dd eg: 2016-11-00
+Fill in the rest of the details correctly.
+Computer name: Alphabetic eg: Piyush
+ Intoduced date: yyyy-mm-dd eg: 2016-12-21
+ Company: Choose any value from the dropdown eg: Canon
+Click on Create this computer</t>
+  </si>
+  <si>
+    <t>The user should be able to open the application in a web browser.
+November has only 30 days so enter but enter 00 as the date</t>
   </si>
 </sst>
 </file>
@@ -162,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -400,11 +533,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -460,6 +624,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,18 +656,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,14 +1002,16 @@
       <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -821,12 +1023,14 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -836,12 +1040,12 @@
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -851,12 +1055,12 @@
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
@@ -866,14 +1070,14 @@
       <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -885,12 +1089,14 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
@@ -900,12 +1106,12 @@
       <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -915,12 +1121,12 @@
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -930,12 +1136,12 @@
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
@@ -945,14 +1151,14 @@
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -964,12 +1170,14 @@
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
@@ -979,12 +1187,12 @@
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -994,12 +1202,12 @@
       <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1009,14 +1217,14 @@
       <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <v>4</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1028,12 +1236,14 @@
       <c r="E15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1043,12 +1253,12 @@
       <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1058,12 +1268,12 @@
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1073,95 +1283,383 @@
       <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>5</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
+    <row r="21" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>6</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>7</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    <row r="27" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>8</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="1"/>
     </row>
+    <row r="30" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>9</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>10</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <v>11</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="33">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:A5"/>
